--- a/SchemeForInspections.xlsx
+++ b/SchemeForInspections.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ER Digrm" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ERD wasa" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Schema" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +21,160 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">ER Diagrams Intro | SQL | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi Value Attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived Attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship Attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying Relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Data Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">items name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make all relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppliers/Contractors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map Regular Entity Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Relation tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes are Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map Weak Entity Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get One to one, One to many, Many to Many relation type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Relation Binary tables with compound key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map out all the relations and tables</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,6 +191,27 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +229,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -88,9 +269,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,14 +335,365 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.93"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="64.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:K26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="11" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="23.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="11" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/SchemeForInspections.xlsx
+++ b/SchemeForInspections.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t xml:space="preserve">ER Diagrams Intro | SQL | </t>
   </si>
@@ -135,10 +135,19 @@
     <t xml:space="preserve">NOA </t>
   </si>
   <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tags</t>
   </si>
   <si>
     <t xml:space="preserve">KeyWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record_Record</t>
   </si>
   <si>
     <t xml:space="preserve">Map Regular Entity Types</t>
@@ -337,11 +346,11 @@
   </sheetPr>
   <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
@@ -475,13 +484,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
   </cols>
@@ -597,15 +606,26 @@
       <c r="H23" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="M23" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +646,7 @@
   </sheetPr>
   <dimension ref="C6:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
